--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T13:57:38+00:00</t>
+    <t>2023-04-28T07:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T07:14:58+00:00</t>
+    <t>2023-04-28T10:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:20:31+00:00</t>
+    <t>2023-04-28T10:21:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:21:40+00:00</t>
+    <t>2023-05-15T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T08:38:34+00:00</t>
+    <t>2023-05-15T10:07:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:07:26+00:00</t>
+    <t>2023-05-15T10:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:09:56+00:00</t>
+    <t>2023-05-16T06:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-16T06:48:43+00:00</t>
+    <t>2023-06-06T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:33:19+00:00</t>
+    <t>2023-06-06T07:37:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:37:43+00:00</t>
+    <t>2023-06-06T07:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:38:08+00:00</t>
+    <t>2023-06-06T07:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:46+00:00</t>
+    <t>2023-06-06T07:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:53+00:00</t>
+    <t>2023-06-06T07:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:45:21+00:00</t>
+    <t>2023-06-08T08:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:30:17+00:00</t>
+    <t>2023-06-08T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:31:26+00:00</t>
+    <t>2023-06-14T06:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T06:47:29+00:00</t>
+    <t>2023-08-28T15:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:26:36+00:00</t>
+    <t>2023-08-28T15:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:28:15+00:00</t>
+    <t>2023-09-01T06:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>410666004</t>
+  </si>
+  <si>
+    <t>385805005</t>
   </si>
   <si>
     <t/>
@@ -359,7 +362,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,16 +396,22 @@
       <c r="A4" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>27</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>28</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
         <v>29</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T06:47:50+00:00</t>
+    <t>2023-09-05T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T14:28:58+00:00</t>
+    <t>2023-09-29T14:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:04:57+00:00</t>
+    <t>2023-09-29T14:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:06:01+00:00</t>
+    <t>2023-09-29T14:14:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>410666004</t>
-  </si>
-  <si>
-    <t>385805005</t>
   </si>
   <si>
     <t/>
@@ -362,7 +359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,22 +393,16 @@
       <c r="A4" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>28</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:14:49+00:00</t>
+    <t>2023-09-29T14:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:15:09+00:00</t>
+    <t>2024-03-15T09:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:11:04+00:00</t>
+    <t>2024-03-15T09:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:12:22+00:00</t>
+    <t>2024-09-24T14:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>410666004</t>
+  </si>
+  <si>
+    <t>385805005</t>
+  </si>
+  <si>
+    <t>409073007</t>
+  </si>
+  <si>
+    <t>55210009</t>
   </si>
   <si>
     <t/>
@@ -359,7 +368,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,16 +402,34 @@
       <c r="A4" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>27</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
         <v>29</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:40:03+00:00</t>
+    <t>2024-09-24T14:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ValueSet-be-vs-request-note-type.xlsx
+++ b/branches/ValueSet-be-vs-request-note-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:41:18+00:00</t>
+    <t>2024-09-24T14:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
